--- a/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14ABABCB-7A10-4431-9130-8D4238ED4EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9AB7A6-9419-4218-AFBE-93E931956223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3ACE69C3-A35A-4B93-8D96-6F705D1304AA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6D434F86-38CA-4216-8AB3-3D798933B249}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,189 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
     <t>7,78%</t>
   </si>
   <si>
@@ -118,33 +280,6 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>42,11%</t>
   </si>
   <si>
@@ -172,21 +307,6 @@
     <t>45,18%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>49,14%</t>
   </si>
   <si>
@@ -214,124 +334,37 @@
     <t>53,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>8,16%</t>
@@ -361,27 +394,6 @@
     <t>10,22%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
     <t>41,74%</t>
   </si>
   <si>
@@ -409,18 +421,6 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
     <t>48,92%</t>
   </si>
   <si>
@@ -451,6 +451,153 @@
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
@@ -478,30 +625,6 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>36,85%</t>
   </si>
   <si>
@@ -529,24 +652,6 @@
     <t>40,3%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>56,37%</t>
   </si>
   <si>
@@ -574,109 +679,31 @@
     <t>58,38%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>6,71%</t>
@@ -706,21 +733,6 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>33,87%</t>
   </si>
   <si>
@@ -742,18 +754,6 @@
     <t>35,8%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>49,23%</t>
   </si>
   <si>
@@ -781,6 +781,132 @@
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
     <t>7,1%</t>
   </si>
   <si>
@@ -808,27 +934,6 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
     <t>33,29%</t>
   </si>
   <si>
@@ -856,21 +961,6 @@
     <t>38,03%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>56,45%</t>
   </si>
   <si>
@@ -895,94 +985,40 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>7,42%</t>
@@ -1009,27 +1045,6 @@
     <t>8,47%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>33,14%</t>
   </si>
   <si>
@@ -1052,21 +1067,6 @@
   </si>
   <si>
     <t>38,58%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
   </si>
   <si>
     <t>56,57%</t>
@@ -1485,7 +1485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECD2965-AF6C-4768-89DC-24B9F7436B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B9111D-3FBA-4D31-9031-949ABD17610A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1875,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>21579</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1890,34 +1890,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>18376</v>
+        <v>778</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1426</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>61</v>
-      </c>
-      <c r="N10" s="7">
-        <v>39955</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,49 +1926,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2042</v>
+        <v>684</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1326</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2595</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4637</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,49 +1977,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>116818</v>
+        <v>6272</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7961</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>22</v>
+      </c>
+      <c r="N12" s="7">
+        <v>14233</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>157</v>
-      </c>
-      <c r="I12" s="7">
-        <v>107523</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>331</v>
-      </c>
-      <c r="N12" s="7">
-        <v>224340</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2028,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>25656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19342</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>67</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44998</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>647</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1314</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2079,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>136307</v>
+        <v>30695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7">
+        <v>26606</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7">
-        <v>197</v>
-      </c>
-      <c r="I14" s="7">
-        <v>131399</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>86</v>
+      </c>
+      <c r="N14" s="7">
+        <v>57301</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="7">
-        <v>402</v>
-      </c>
-      <c r="N14" s="7">
-        <v>267706</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,102 +2130,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7">
-        <v>277412</v>
+        <v>63955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>260540</v>
+        <v>55329</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>803</v>
+        <v>179</v>
       </c>
       <c r="N15" s="7">
-        <v>537952</v>
+        <v>119284</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6272</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>647</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1314</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7961</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>22</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14233</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2234,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>684</v>
+        <v>2042</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2595</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4637</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>642</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1326</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2285,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>25656</v>
+        <v>21579</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18376</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>61</v>
+      </c>
+      <c r="N18" s="7">
+        <v>39955</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="7">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19342</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="7">
-        <v>67</v>
-      </c>
-      <c r="N18" s="7">
-        <v>44998</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,46 +2336,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>647</v>
+        <v>116818</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="7">
+        <v>157</v>
+      </c>
+      <c r="I19" s="7">
+        <v>107523</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>778</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>331</v>
+      </c>
+      <c r="N19" s="7">
+        <v>224340</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1426</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>88</v>
@@ -2387,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>30695</v>
+        <v>136307</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>89</v>
@@ -2402,10 +2402,10 @@
         <v>91</v>
       </c>
       <c r="H20" s="7">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="I20" s="7">
-        <v>26606</v>
+        <v>131399</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>92</v>
@@ -2417,10 +2417,10 @@
         <v>94</v>
       </c>
       <c r="M20" s="7">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="N20" s="7">
-        <v>57301</v>
+        <v>267706</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>95</v>
@@ -2438,49 +2438,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>97</v>
+        <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>63955</v>
+        <v>277412</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="I21" s="7">
-        <v>55329</v>
+        <v>260540</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>179</v>
+        <v>803</v>
       </c>
       <c r="N21" s="7">
-        <v>119284</v>
+        <v>537952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2491,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>27851</v>
+        <v>1315</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1425</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="7">
-        <v>40</v>
-      </c>
-      <c r="I22" s="7">
-        <v>26337</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2739</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7">
-        <v>83</v>
-      </c>
-      <c r="N22" s="7">
-        <v>54188</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>2726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2563,13 +2563,13 @@
         <v>3237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2578,13 +2578,13 @@
         <v>5963</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,49 +2593,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7">
-        <v>142474</v>
+        <v>27851</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="7">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26337</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>83</v>
+      </c>
+      <c r="N24" s="7">
+        <v>54188</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="7">
-        <v>186</v>
-      </c>
-      <c r="I24" s="7">
-        <v>126865</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" s="7">
-        <v>398</v>
-      </c>
-      <c r="N24" s="7">
-        <v>269339</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,49 +2644,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D25" s="7">
-        <v>1315</v>
+        <v>142474</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7">
+        <v>186</v>
+      </c>
+      <c r="I25" s="7">
+        <v>126865</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1425</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>398</v>
+      </c>
+      <c r="N25" s="7">
+        <v>269339</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2739</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2752,13 @@
         <v>341367</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>469</v>
@@ -2767,13 +2767,13 @@
         <v>315869</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>982</v>
@@ -2782,13 +2782,13 @@
         <v>657236</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6552CF-C6EE-49EA-AEFC-4B2E345F7A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF4D8F2-5670-43A6-8073-BD98CA6419DA}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,49 +3197,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13881</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18710</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>32591</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3248,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>3391</v>
+        <v>1555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3715</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>7107</v>
+        <v>1555</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,49 +3299,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>97431</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>91286</v>
+        <v>4448</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M12" s="7">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>188717</v>
+        <v>12748</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3350,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>646</v>
+        <v>27256</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>1925</v>
+        <v>35313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>2571</v>
+        <v>62569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3401,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>149025</v>
+        <v>29063</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32208</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="7">
+        <v>86</v>
+      </c>
+      <c r="N14" s="7">
+        <v>61271</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H14" s="7">
-        <v>186</v>
-      </c>
-      <c r="I14" s="7">
-        <v>131287</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M14" s="7">
-        <v>407</v>
-      </c>
-      <c r="N14" s="7">
-        <v>280313</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,102 +3452,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>389</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>264374</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>246924</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>741</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>511299</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>8300</v>
+        <v>646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>4448</v>
+        <v>1925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>12748</v>
+        <v>2571</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3556,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1555</v>
+        <v>3391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>1555</v>
+        <v>7107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3607,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>27256</v>
+        <v>13881</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="7">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18710</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="7">
+        <v>46</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32591</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="7">
-        <v>50</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35313</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M18" s="7">
-        <v>88</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62569</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,46 +3658,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>97431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="7">
+        <v>133</v>
+      </c>
+      <c r="I19" s="7">
+        <v>91286</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="7">
+        <v>274</v>
+      </c>
+      <c r="N19" s="7">
+        <v>188717</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>203</v>
@@ -3709,10 +3709,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7">
-        <v>29063</v>
+        <v>149025</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>204</v>
@@ -3724,10 +3724,10 @@
         <v>206</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="I20" s="7">
-        <v>32208</v>
+        <v>131287</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>207</v>
@@ -3739,10 +3739,10 @@
         <v>209</v>
       </c>
       <c r="M20" s="7">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="N20" s="7">
-        <v>61271</v>
+        <v>280313</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>210</v>
@@ -3760,49 +3760,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>264374</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>246924</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>741</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>511299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,49 +3813,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>22181</v>
+        <v>646</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="7">
-        <v>31</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23158</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2571</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M22" s="7">
-        <v>63</v>
-      </c>
-      <c r="N22" s="7">
-        <v>45339</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3870,13 @@
         <v>4946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3885,13 +3885,13 @@
         <v>3715</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3900,13 +3900,13 @@
         <v>8662</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +3915,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>124687</v>
+        <v>22181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23158</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>63</v>
+      </c>
+      <c r="N24" s="7">
+        <v>45339</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="7">
-        <v>183</v>
-      </c>
-      <c r="I24" s="7">
-        <v>126599</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" s="7">
-        <v>362</v>
-      </c>
-      <c r="N24" s="7">
-        <v>251286</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +3966,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="D25" s="7">
-        <v>646</v>
+        <v>124687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="I25" s="7">
-        <v>1925</v>
+        <v>126599</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>362</v>
+      </c>
+      <c r="N25" s="7">
+        <v>251286</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2571</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4023,7 @@
         <v>178088</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>238</v>
@@ -4074,13 +4074,13 @@
         <v>330548</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>453</v>
@@ -4089,13 +4089,13 @@
         <v>318893</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>934</v>
@@ -4104,13 +4104,13 @@
         <v>649442</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C279C5-2570-4B9A-85A1-06FDC98202C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114CE754-4691-4E9A-B086-C6FACCE045A4}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,49 +4519,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>19786</v>
+        <v>713</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>713</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18876</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M10" s="7">
-        <v>54</v>
-      </c>
-      <c r="N10" s="7">
-        <v>38662</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +4570,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>5969</v>
+        <v>644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3192</v>
+        <v>724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>9161</v>
+        <v>1368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4621,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>92822</v>
+        <v>6524</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>94125</v>
+        <v>1806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>186947</v>
+        <v>8330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +4672,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>2841</v>
+        <v>24757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>2317</v>
+        <v>35654</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>5157</v>
+        <v>60411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +4723,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7">
-        <v>157374</v>
+        <v>43320</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="7">
+        <v>79</v>
+      </c>
+      <c r="I14" s="7">
+        <v>52529</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M14" s="7">
+        <v>141</v>
+      </c>
+      <c r="N14" s="7">
+        <v>95849</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="7">
-        <v>201</v>
-      </c>
-      <c r="I14" s="7">
-        <v>143815</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M14" s="7">
-        <v>414</v>
-      </c>
-      <c r="N14" s="7">
-        <v>301189</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,102 +4774,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>278792</v>
+        <v>75957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>368</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>262325</v>
+        <v>90714</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>745</v>
+        <v>247</v>
       </c>
       <c r="N15" s="7">
-        <v>541117</v>
+        <v>166671</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>6524</v>
+        <v>2841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1806</v>
+        <v>2317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>8330</v>
+        <v>5157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,49 +4878,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>644</v>
+        <v>5969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>724</v>
+        <v>3192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>1368</v>
+        <v>9161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,49 +4929,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>24757</v>
+        <v>19786</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18876</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" s="7">
+        <v>54</v>
+      </c>
+      <c r="N18" s="7">
+        <v>38662</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="7">
-        <v>54</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35654</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M18" s="7">
-        <v>90</v>
-      </c>
-      <c r="N18" s="7">
-        <v>60411</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +4980,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D19" s="7">
-        <v>713</v>
+        <v>92822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>94125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="N19" s="7">
-        <v>713</v>
+        <v>186947</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,28 +5031,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7">
-        <v>43320</v>
+        <v>157374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="I20" s="7">
-        <v>52529</v>
+        <v>143815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>310</v>
@@ -5061,10 +5061,10 @@
         <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>141</v>
+        <v>414</v>
       </c>
       <c r="N20" s="7">
-        <v>95849</v>
+        <v>301189</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>312</v>
@@ -5082,49 +5082,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="D21" s="7">
-        <v>75957</v>
+        <v>278792</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="I21" s="7">
-        <v>90714</v>
+        <v>262325</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>247</v>
+        <v>745</v>
       </c>
       <c r="N21" s="7">
-        <v>166671</v>
+        <v>541117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,49 +5135,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>26310</v>
+        <v>3554</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2317</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5870</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H22" s="7">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20682</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M22" s="7">
-        <v>67</v>
-      </c>
-      <c r="N22" s="7">
-        <v>46992</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5192,13 @@
         <v>6613</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5207,13 +5207,13 @@
         <v>3916</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5222,13 +5222,13 @@
         <v>10529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,49 +5237,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>117579</v>
+        <v>26310</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>20682</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="7">
-        <v>187</v>
-      </c>
-      <c r="I24" s="7">
-        <v>129779</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>67</v>
+      </c>
+      <c r="N24" s="7">
+        <v>46992</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="M24" s="7">
-        <v>348</v>
-      </c>
-      <c r="N24" s="7">
-        <v>247358</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,40 +5288,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7">
-        <v>3554</v>
+        <v>117579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="7">
+        <v>187</v>
+      </c>
+      <c r="I25" s="7">
+        <v>129779</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2317</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>339</v>
       </c>
       <c r="M25" s="7">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="N25" s="7">
-        <v>5870</v>
+        <v>247358</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>340</v>
@@ -5396,13 +5396,13 @@
         <v>354749</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>505</v>
@@ -5411,13 +5411,13 @@
         <v>353039</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -5426,13 +5426,13 @@
         <v>707788</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9AB7A6-9419-4218-AFBE-93E931956223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C8B8B1-7338-415B-9E81-2B83469795EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6D434F86-38CA-4216-8AB3-3D798933B249}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D50AA04-A1F6-40BD-8C80-57275955EF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="364">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
@@ -67,1033 +67,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1140,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1200,39 +1236,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1284,7 +1320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1395,13 +1431,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1410,6 +1439,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1474,19 +1510,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B9111D-3FBA-4D31-9031-949ABD17610A}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87823D4-AADC-4C48-91CB-BF99859FFA11}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1875,49 +1931,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,49 +1976,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,49 +2021,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>22</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2066,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2111,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
-      </c>
-      <c r="N14" s="7">
-        <v>57301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,102 +2156,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>97</v>
-      </c>
-      <c r="D15" s="7">
-        <v>63955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>179</v>
-      </c>
-      <c r="N15" s="7">
-        <v>119284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>62910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>647</v>
+        <v>60816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="7">
+        <v>186</v>
+      </c>
+      <c r="N16" s="7">
+        <v>123726</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1314</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2254,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>2042</v>
+        <v>61011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>2595</v>
+        <v>48982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="N17" s="7">
-        <v>4637</v>
+        <v>109993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2305,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>21579</v>
+        <v>12762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>18376</v>
+        <v>13693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>39955</v>
+        <v>26455</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2356,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>116818</v>
+        <v>684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>107523</v>
+        <v>1912</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>224340</v>
+        <v>2596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2407,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>136307</v>
+        <v>647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>131399</v>
+        <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>267706</v>
+        <v>1426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,102 +2458,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="D21" s="7">
-        <v>277412</v>
+        <v>138015</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="I21" s="7">
-        <v>260540</v>
+        <v>126182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>803</v>
+        <v>396</v>
       </c>
       <c r="N21" s="7">
-        <v>537952</v>
+        <v>264196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D22" s="7">
-        <v>1315</v>
+        <v>104092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="I22" s="7">
-        <v>1425</v>
+        <v>97189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="N22" s="7">
-        <v>2739</v>
+        <v>201281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,49 +2562,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7">
-        <v>2726</v>
+        <v>81463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>3237</v>
+        <v>77883</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>5963</v>
+        <v>159346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,49 +2613,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>27851</v>
+        <v>15089</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>26337</v>
+        <v>12644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>54188</v>
+        <v>27733</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,49 +2664,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>142474</v>
+        <v>2042</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>126865</v>
+        <v>1325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>269339</v>
+        <v>3367</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,49 +2715,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>167002</v>
+        <v>667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>158005</v>
+        <v>647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>325007</v>
+        <v>1314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,55 +2766,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203352</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>280</v>
+      </c>
+      <c r="I27" s="7">
+        <v>189688</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>586</v>
+      </c>
+      <c r="N27" s="7">
+        <v>393040</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>252</v>
+      </c>
+      <c r="D28" s="7">
+        <v>167002</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>236</v>
+      </c>
+      <c r="I28" s="7">
+        <v>158005</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="7">
+        <v>488</v>
+      </c>
+      <c r="N28" s="7">
+        <v>325007</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>212</v>
+      </c>
+      <c r="D29" s="7">
+        <v>142474</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
+        <v>186</v>
+      </c>
+      <c r="I29" s="7">
+        <v>126865</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>398</v>
+      </c>
+      <c r="N29" s="7">
+        <v>269339</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27851</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
+        <v>40</v>
+      </c>
+      <c r="I30" s="7">
+        <v>26337</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7">
+        <v>83</v>
+      </c>
+      <c r="N30" s="7">
+        <v>54188</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2726</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3237</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5963</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1315</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1425</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2739</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>513</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>341367</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>469</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>315869</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>982</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>657236</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2807,8 +3141,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF4D8F2-5670-43A6-8073-BD98CA6419DA}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140131F-0A80-4A94-9A24-56B64C8A593A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2824,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3199,47 +3533,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3576,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,49 +3621,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3666,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
-      </c>
-      <c r="N13" s="7">
-        <v>62569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3711,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,102 +3756,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>646</v>
+        <v>80270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="I16" s="7">
-        <v>1925</v>
+        <v>78739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="N16" s="7">
-        <v>2571</v>
+        <v>159009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3854,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>3391</v>
+        <v>57413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7">
-        <v>3715</v>
+        <v>66715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="N17" s="7">
-        <v>7107</v>
+        <v>124127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3905,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>13881</v>
+        <v>16090</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>18710</v>
+        <v>9400</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N18" s="7">
-        <v>32591</v>
+        <v>25490</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,49 +3956,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>97431</v>
+        <v>2902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>91286</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>188717</v>
+        <v>2902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,49 +4007,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>149025</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>131287</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>280313</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,102 +4058,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>264374</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>352</v>
+        <v>220</v>
       </c>
       <c r="I21" s="7">
-        <v>246924</v>
+        <v>154854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>741</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>511299</v>
+        <v>311528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>646</v>
+        <v>97818</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>1925</v>
+        <v>84757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="N22" s="7">
-        <v>2571</v>
+        <v>182575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,49 +4162,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>4946</v>
+        <v>67274</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>3715</v>
+        <v>59885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="N23" s="7">
-        <v>8662</v>
+        <v>127159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +4213,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>22181</v>
+        <v>6091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>23158</v>
+        <v>13758</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>45339</v>
+        <v>19849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4264,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>124687</v>
+        <v>2044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="H25" s="7">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>126599</v>
+        <v>3715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>251286</v>
+        <v>5760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4315,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>178088</v>
+        <v>646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>163495</v>
+        <v>1925</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>341584</v>
+        <v>2571</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,55 +4366,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>256</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173874</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>233</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164040</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>489</v>
+      </c>
+      <c r="N27" s="7">
+        <v>337914</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>262</v>
+      </c>
+      <c r="D28" s="7">
+        <v>178088</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="7">
+        <v>231</v>
+      </c>
+      <c r="I28" s="7">
+        <v>163495</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="7">
+        <v>493</v>
+      </c>
+      <c r="N28" s="7">
+        <v>341584</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>179</v>
+      </c>
+      <c r="D29" s="7">
+        <v>124687</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="7">
+        <v>183</v>
+      </c>
+      <c r="I29" s="7">
+        <v>126599</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="7">
+        <v>362</v>
+      </c>
+      <c r="N29" s="7">
+        <v>251286</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22181</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="7">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7">
+        <v>23158</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="7">
+        <v>63</v>
+      </c>
+      <c r="N30" s="7">
+        <v>45339</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4946</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3715</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8662</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>646</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2571</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>481</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>330548</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>453</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>318893</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>934</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>649442</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4129,8 +4741,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114CE754-4691-4E9A-B086-C6FACCE045A4}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB87BA-4025-47D9-8AF9-2EA94C0FBFBF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4146,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4519,49 +5131,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +5176,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +5221,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>6524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +5266,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>35654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
-      </c>
-      <c r="N13" s="7">
-        <v>60411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +5311,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
-      </c>
-      <c r="I14" s="7">
-        <v>52529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>141</v>
-      </c>
-      <c r="N14" s="7">
-        <v>95849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,102 +5356,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>247</v>
-      </c>
-      <c r="N15" s="7">
-        <v>166671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>2841</v>
+        <v>105040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>2317</v>
+        <v>109224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="N16" s="7">
-        <v>5157</v>
+        <v>214265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,49 +5454,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>5969</v>
+        <v>58868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>3192</v>
+        <v>61448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="N17" s="7">
-        <v>9161</v>
+        <v>120316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,49 +5505,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>19786</v>
+        <v>13054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>18876</v>
+        <v>10037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>38662</v>
+        <v>23091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +5556,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>92822</v>
+        <v>2847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>94125</v>
+        <v>2185</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>186947</v>
+        <v>5032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5607,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>157374</v>
+        <v>1503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>143815</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>414</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>301189</v>
+        <v>1503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,102 +5658,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>377</v>
+        <v>253</v>
       </c>
       <c r="D21" s="7">
-        <v>278792</v>
+        <v>181312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="I21" s="7">
-        <v>262325</v>
+        <v>182894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>745</v>
+        <v>516</v>
       </c>
       <c r="N21" s="7">
-        <v>541117</v>
+        <v>364206</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D22" s="7">
-        <v>3554</v>
+        <v>95653</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="I22" s="7">
-        <v>2317</v>
+        <v>87121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="N22" s="7">
-        <v>5870</v>
+        <v>182774</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,49 +5762,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D23" s="7">
-        <v>6613</v>
+        <v>58711</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I23" s="7">
-        <v>3916</v>
+        <v>68331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="N23" s="7">
-        <v>10529</v>
+        <v>127042</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,49 +5813,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>26310</v>
+        <v>13256</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>20682</v>
+        <v>10645</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>46992</v>
+        <v>23901</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,49 +5864,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>117579</v>
+        <v>3766</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1731</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="7">
-        <v>187</v>
-      </c>
-      <c r="I25" s="7">
-        <v>129779</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
-        <v>348</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>247358</v>
+        <v>5497</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,49 +5915,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>200694</v>
+        <v>2051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H26" s="7">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>196345</v>
+        <v>2317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>397039</v>
+        <v>4368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,55 +5966,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173437</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170145</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343582</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>275</v>
+      </c>
+      <c r="D28" s="7">
+        <v>200694</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="7">
+        <v>280</v>
+      </c>
+      <c r="I28" s="7">
+        <v>196345</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M28" s="7">
+        <v>555</v>
+      </c>
+      <c r="N28" s="7">
+        <v>397039</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7">
+        <v>117579</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="7">
+        <v>187</v>
+      </c>
+      <c r="I29" s="7">
+        <v>129779</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M29" s="7">
+        <v>348</v>
+      </c>
+      <c r="N29" s="7">
+        <v>247358</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26310</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>20682</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" s="7">
+        <v>67</v>
+      </c>
+      <c r="N30" s="7">
+        <v>46992</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6613</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3916</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M31" s="7">
+        <v>14</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10529</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3554</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2317</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5870</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>487</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>354749</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>505</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>353039</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>992</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>707788</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C8B8B1-7338-415B-9E81-2B83469795EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF1BF21-5155-439B-B45E-116A95C557CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D50AA04-A1F6-40BD-8C80-57275955EF4A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E25457-9B20-4A29-A455-06B6E29B1076}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
@@ -97,1039 +97,1024 @@
     <t>45,58%</t>
   </si>
   <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>42,47%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>37,6%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>51,24%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2015 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87823D4-AADC-4C48-91CB-BF99859FFA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF27AE9-2652-4EA6-9CD9-B1A3F2B7F71D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,7 +2230,7 @@
         <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2245,13 @@
         <v>61011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2275,13 +2260,13 @@
         <v>48982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>163</v>
@@ -2290,13 +2275,13 @@
         <v>109993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2296,13 @@
         <v>12762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2326,13 +2311,13 @@
         <v>13693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -2341,13 +2326,13 @@
         <v>26455</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2347,13 @@
         <v>684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2377,13 +2362,13 @@
         <v>1912</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2392,13 +2377,13 @@
         <v>2596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2398,13 @@
         <v>647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2428,13 +2413,13 @@
         <v>778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2443,13 +2428,13 @@
         <v>1426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2449,13 @@
         <v>138015</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>189</v>
@@ -2479,13 +2464,13 @@
         <v>126182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>396</v>
@@ -2494,18 +2479,18 @@
         <v>264196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2517,10 +2502,10 @@
         <v>104092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>63</v>
@@ -2532,13 +2517,13 @@
         <v>97189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2547,13 +2532,13 @@
         <v>201281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2553,13 @@
         <v>81463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -2688,7 +2673,7 @@
         <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>91</v>
@@ -2703,10 +2688,10 @@
         <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,10 +2709,10 @@
         <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2736,10 +2721,10 @@
         <v>647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>96</v>
@@ -2754,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>97</v>
@@ -2772,13 +2757,13 @@
         <v>203352</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>280</v>
@@ -2787,13 +2772,13 @@
         <v>189688</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>586</v>
@@ -2802,13 +2787,13 @@
         <v>393040</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3017,7 @@
         <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>135</v>
@@ -3047,7 +3032,7 @@
         <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>137</v>
@@ -3059,7 +3044,7 @@
         <v>2739</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>138</v>
@@ -3080,13 +3065,13 @@
         <v>341367</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>469</v>
@@ -3095,13 +3080,13 @@
         <v>315869</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>982</v>
@@ -3110,13 +3095,13 @@
         <v>657236</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140131F-0A80-4A94-9A24-56B64C8A593A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC9AEF5-7EAC-4C2F-AF14-14D85ABB2343}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3932,7 +3917,7 @@
         <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3941,13 +3926,13 @@
         <v>25490</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3947,13 @@
         <v>2902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3977,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3992,10 +3977,10 @@
         <v>2902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>174</v>
@@ -4013,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>175</v>
@@ -4028,25 +4013,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>176</v>
@@ -4064,13 +4049,13 @@
         <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>220</v>
@@ -4079,13 +4064,13 @@
         <v>154854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -4094,18 +4079,18 @@
         <v>311528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4270,13 +4255,13 @@
         <v>2044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4285,13 +4270,13 @@
         <v>3715</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4300,10 +4285,10 @@
         <v>5760</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>210</v>
@@ -4321,13 +4306,13 @@
         <v>646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4339,10 +4324,10 @@
         <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4351,13 +4336,13 @@
         <v>2571</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4357,13 @@
         <v>173874</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>233</v>
@@ -4387,13 +4372,13 @@
         <v>164040</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>489</v>
@@ -4402,13 +4387,13 @@
         <v>337914</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4410,13 @@
         <v>178088</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>231</v>
@@ -4446,7 +4431,7 @@
         <v>221</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>493</v>
@@ -4455,10 +4440,10 @@
         <v>341584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>224</v>
@@ -4527,13 +4512,13 @@
         <v>22181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -4542,13 +4527,13 @@
         <v>23158</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -4557,13 +4542,13 @@
         <v>45339</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4563,13 @@
         <v>4946</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4596,7 +4581,7 @@
         <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>244</v>
@@ -4632,10 +4617,10 @@
         <v>126</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4644,13 +4629,13 @@
         <v>1925</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4659,7 +4644,7 @@
         <v>2571</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>138</v>
@@ -4680,13 +4665,13 @@
         <v>330548</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>453</v>
@@ -4695,13 +4680,13 @@
         <v>318893</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>934</v>
@@ -4710,13 +4695,13 @@
         <v>649442</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB87BA-4025-47D9-8AF9-2EA94C0FBFBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550927DA-6D7E-4B74-A718-CE50FCFBB2D2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5394,13 @@
         <v>105040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5424,13 +5409,13 @@
         <v>109224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5439,13 +5424,13 @@
         <v>214265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5445,13 @@
         <v>58868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -5475,13 +5460,13 @@
         <v>61448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>170</v>
@@ -5490,13 +5475,13 @@
         <v>120316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5496,13 @@
         <v>13054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5526,13 +5511,13 @@
         <v>10037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -5541,13 +5526,13 @@
         <v>23091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,10 +5547,10 @@
         <v>2847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>280</v>
@@ -5577,13 +5562,13 @@
         <v>2185</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5592,13 +5577,13 @@
         <v>5032</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5598,13 @@
         <v>1503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5628,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5646,10 +5631,10 @@
         <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5649,13 @@
         <v>181312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -5679,13 +5664,13 @@
         <v>182894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>516</v>
@@ -5694,18 +5679,18 @@
         <v>364206</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5717,13 +5702,13 @@
         <v>95653</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -5732,13 +5717,13 @@
         <v>87121</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -5747,13 +5732,13 @@
         <v>182774</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5753,13 @@
         <v>58711</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -5786,10 +5771,10 @@
         <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>178</v>
@@ -5798,13 +5783,13 @@
         <v>127042</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5804,13 @@
         <v>13256</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5834,13 +5819,13 @@
         <v>10645</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5849,13 +5834,13 @@
         <v>23901</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5855,13 @@
         <v>3766</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5888,10 +5873,10 @@
         <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5900,13 +5885,13 @@
         <v>5497</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5906,13 @@
         <v>2051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5936,13 +5921,13 @@
         <v>2317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5951,13 +5936,13 @@
         <v>4368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5957,13 @@
         <v>173437</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>242</v>
@@ -5987,13 +5972,13 @@
         <v>170145</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -6002,13 +5987,13 @@
         <v>343582</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6010,13 @@
         <v>200694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -6040,13 +6025,13 @@
         <v>196345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>555</v>
@@ -6055,13 +6040,13 @@
         <v>397039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6061,13 @@
         <v>117579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -6091,13 +6076,13 @@
         <v>129779</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -6106,13 +6091,13 @@
         <v>247358</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,10 +6115,10 @@
         <v>78</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -6142,13 +6127,13 @@
         <v>20682</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -6157,13 +6142,13 @@
         <v>46992</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6163,13 @@
         <v>6613</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6193,13 +6178,13 @@
         <v>3916</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6208,13 +6193,13 @@
         <v>10529</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,10 +6217,10 @@
         <v>87</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6244,13 +6229,13 @@
         <v>2317</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -6259,13 +6244,13 @@
         <v>5870</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6265,13 @@
         <v>354749</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>505</v>
@@ -6295,13 +6280,13 @@
         <v>353039</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>992</v>
@@ -6310,13 +6295,13 @@
         <v>707788</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF1BF21-5155-439B-B45E-116A95C557CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CD844F-7745-40F3-9EF3-59E447F2A481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E25457-9B20-4A29-A455-06B6E29B1076}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E01ED2D-F928-482D-B1C3-B574B8F6572D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="360">
   <si>
     <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2007 (Tasa respuesta: 46,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,94 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -181,826 +190,829 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2012 (Tasa respuesta: 44,5%)</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar con todos sus amigos en 2016 (Tasa respuesta: 46,66%)</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -1009,112 +1021,103 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>56,1%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>33,14%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>2,36%</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF27AE9-2652-4EA6-9CD9-B1A3F2B7F71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6965924-2C10-4DFC-A2CE-FE0A56A4C1F7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,10 +2191,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>62910</v>
+        <v>60816</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2203,10 +2206,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>60816</v>
+        <v>62910</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2239,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>61011</v>
+        <v>48982</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2254,10 +2257,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>48982</v>
+        <v>61011</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2293,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>12762</v>
+        <v>13693</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2305,10 +2308,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>13693</v>
+        <v>12762</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2341,10 +2344,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>684</v>
+        <v>1912</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2356,10 +2359,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1912</v>
+        <v>684</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2395,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>647</v>
+        <v>778</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>55</v>
@@ -2410,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>778</v>
+        <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
@@ -2431,7 +2434,7 @@
         <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>59</v>
@@ -2443,25 +2446,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126182</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>207</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>138015</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126182</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2496,34 +2499,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7">
-        <v>104092</v>
+        <v>97189</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I22" s="7">
-        <v>97189</v>
+        <v>104092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2532,13 +2535,13 @@
         <v>201281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,34 +2550,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7">
+        <v>77883</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="7">
         <v>122</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>81463</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="7">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7">
-        <v>77883</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>235</v>
@@ -2583,13 +2586,13 @@
         <v>159346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,34 +2601,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12644</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15089</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="7">
-        <v>19</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12644</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -2634,13 +2637,13 @@
         <v>27733</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,34 +2652,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2042</v>
+        <v>1325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>1325</v>
+        <v>2042</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2688,10 +2691,10 @@
         <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,28 +2706,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>96</v>
@@ -2736,10 +2739,10 @@
         <v>1314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>97</v>
@@ -2751,25 +2754,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>189688</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203352</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>280</v>
-      </c>
-      <c r="I27" s="7">
-        <v>189688</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2804,10 +2807,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>167002</v>
+        <v>158005</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>98</v>
@@ -2819,10 +2822,10 @@
         <v>100</v>
       </c>
       <c r="H28" s="7">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I28" s="7">
-        <v>158005</v>
+        <v>167002</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>101</v>
@@ -2855,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D29" s="7">
-        <v>142474</v>
+        <v>126865</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>107</v>
@@ -2870,10 +2873,10 @@
         <v>109</v>
       </c>
       <c r="H29" s="7">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="I29" s="7">
-        <v>126865</v>
+        <v>142474</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>110</v>
@@ -2906,10 +2909,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>27851</v>
+        <v>26337</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>116</v>
@@ -2921,10 +2924,10 @@
         <v>118</v>
       </c>
       <c r="H30" s="7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I30" s="7">
-        <v>26337</v>
+        <v>27851</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>119</v>
@@ -2957,10 +2960,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>2726</v>
+        <v>3237</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>125</v>
@@ -2972,10 +2975,10 @@
         <v>127</v>
       </c>
       <c r="H31" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>3237</v>
+        <v>2726</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>128</v>
@@ -2996,10 +2999,10 @@
         <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,31 +3014,31 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1315</v>
+        <v>1425</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1425</v>
+        <v>1315</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3044,13 +3047,13 @@
         <v>2739</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,25 +3062,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>469</v>
+      </c>
+      <c r="D33" s="7">
+        <v>315869</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>513</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>341367</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>469</v>
-      </c>
-      <c r="I33" s="7">
-        <v>315869</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC9AEF5-7EAC-4C2F-AF14-14D85ABB2343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6766B13B-35C0-40DE-92B1-439CAC8F64B3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,34 +3791,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>112</v>
+      </c>
+      <c r="D16" s="7">
+        <v>78739</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="7">
         <v>119</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>80270</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="7">
-        <v>112</v>
-      </c>
-      <c r="I16" s="7">
-        <v>78739</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -3824,13 +3827,13 @@
         <v>159009</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,34 +3842,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>95</v>
+      </c>
+      <c r="D17" s="7">
+        <v>66715</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="7">
         <v>79</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>57413</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="7">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7">
-        <v>66715</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -3875,13 +3878,13 @@
         <v>124127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,34 +3893,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9400</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>16090</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9400</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3926,13 +3929,13 @@
         <v>25490</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,34 +3944,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2902</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3977,13 +3980,13 @@
         <v>2902</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,43 +4001,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,25 +4046,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>154854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>220</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4096,34 +4099,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>119</v>
+      </c>
+      <c r="D22" s="7">
+        <v>84757</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="7">
         <v>143</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>97818</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="7">
-        <v>119</v>
-      </c>
-      <c r="I22" s="7">
-        <v>84757</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -4132,13 +4135,13 @@
         <v>182575</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,34 +4150,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7">
+        <v>59885</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="7">
         <v>100</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>67274</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="7">
-        <v>88</v>
-      </c>
-      <c r="I23" s="7">
-        <v>59885</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>188</v>
@@ -4183,13 +4186,13 @@
         <v>127159</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,34 +4201,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13758</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>6091</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="7">
-        <v>18</v>
-      </c>
-      <c r="I24" s="7">
-        <v>13758</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -4234,13 +4237,13 @@
         <v>19849</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,34 +4252,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>2044</v>
+        <v>3715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>204</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3715</v>
+        <v>2044</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4285,13 +4288,13 @@
         <v>5760</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,34 +4303,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>646</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1925</v>
-      </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4336,13 +4339,13 @@
         <v>2571</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,25 +4354,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>233</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164040</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>256</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173874</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>233</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164040</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4404,34 +4407,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>231</v>
+      </c>
+      <c r="D28" s="7">
+        <v>163495</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="7">
         <v>262</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>178088</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="7">
-        <v>231</v>
-      </c>
-      <c r="I28" s="7">
-        <v>163495</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>493</v>
@@ -4440,10 +4443,10 @@
         <v>341584</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>224</v>
@@ -4455,10 +4458,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D29" s="7">
-        <v>124687</v>
+        <v>126599</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>225</v>
@@ -4470,10 +4473,10 @@
         <v>227</v>
       </c>
       <c r="H29" s="7">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I29" s="7">
-        <v>126599</v>
+        <v>124687</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>228</v>
@@ -4491,7 +4494,7 @@
         <v>251286</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>231</v>
@@ -4506,34 +4509,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>23158</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="7">
         <v>32</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>22181</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H30" s="7">
-        <v>31</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23158</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -4542,13 +4545,13 @@
         <v>45339</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,34 +4560,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3715</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4946</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3715</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4593,13 +4596,13 @@
         <v>8662</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,34 +4611,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>646</v>
+        <v>1925</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>248</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>1925</v>
+        <v>646</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4644,13 +4647,13 @@
         <v>2571</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,25 +4662,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>453</v>
+      </c>
+      <c r="D33" s="7">
+        <v>318893</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>481</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>330548</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>453</v>
-      </c>
-      <c r="I33" s="7">
-        <v>318893</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550927DA-6D7E-4B74-A718-CE50FCFBB2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF477F2B-BB3F-4595-9674-9982B388AF43}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5388,34 +5391,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>109224</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="7">
         <v>146</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>105040</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
-      <c r="I16" s="7">
-        <v>109224</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
@@ -5424,13 +5427,13 @@
         <v>214265</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,34 +5442,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>88</v>
+      </c>
+      <c r="D17" s="7">
+        <v>61448</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="7">
         <v>82</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>58868</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H17" s="7">
-        <v>88</v>
-      </c>
-      <c r="I17" s="7">
-        <v>61448</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>170</v>
@@ -5475,13 +5478,13 @@
         <v>120316</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,34 +5493,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10037</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="7">
         <v>19</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>13054</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10037</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -5526,13 +5529,13 @@
         <v>23091</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,31 +5544,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2847</v>
+        <v>2185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2185</v>
+        <v>2847</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>282</v>
@@ -5580,10 +5583,10 @@
         <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,34 +5595,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1503</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5628,13 +5631,13 @@
         <v>1503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,25 +5646,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>263</v>
+      </c>
+      <c r="D21" s="7">
+        <v>182894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>253</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>181312</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>263</v>
-      </c>
-      <c r="I21" s="7">
-        <v>182894</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5696,34 +5699,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7">
+        <v>87121</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="7">
         <v>129</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>95653</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H22" s="7">
-        <v>122</v>
-      </c>
-      <c r="I22" s="7">
-        <v>87121</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -5732,13 +5735,13 @@
         <v>182774</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,34 +5750,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>99</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68331</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="7">
         <v>79</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>58711</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" s="7">
-        <v>99</v>
-      </c>
-      <c r="I23" s="7">
-        <v>68331</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>178</v>
@@ -5783,13 +5786,13 @@
         <v>127042</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,34 +5801,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10645</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>13256</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24" s="7">
-        <v>16</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10645</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5834,13 +5837,13 @@
         <v>23901</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,34 +5852,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>3766</v>
+        <v>1731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>315</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>1731</v>
+        <v>3766</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5885,13 +5888,13 @@
         <v>5497</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,31 +5906,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2051</v>
+        <v>2317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2317</v>
+        <v>2051</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5936,13 +5939,13 @@
         <v>4368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,25 +5954,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170145</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173437</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170145</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6004,34 +6007,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>280</v>
+      </c>
+      <c r="D28" s="7">
+        <v>196345</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="7">
         <v>275</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>200694</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H28" s="7">
-        <v>280</v>
-      </c>
-      <c r="I28" s="7">
-        <v>196345</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M28" s="7">
         <v>555</v>
@@ -6040,13 +6043,13 @@
         <v>397039</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,34 +6058,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>187</v>
+      </c>
+      <c r="D29" s="7">
+        <v>129779</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="7">
         <v>161</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>117579</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H29" s="7">
-        <v>187</v>
-      </c>
-      <c r="I29" s="7">
-        <v>129779</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -6091,13 +6094,13 @@
         <v>247358</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,34 +6109,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20682</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="7">
         <v>37</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>26310</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="7">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20682</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -6142,13 +6145,13 @@
         <v>46992</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,34 +6160,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3916</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6613</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3916</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6193,13 +6196,13 @@
         <v>10529</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,34 +6211,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2317</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3554</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2317</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>356</v>
+        <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -6244,13 +6247,13 @@
         <v>5870</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,25 +6262,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>505</v>
+      </c>
+      <c r="D33" s="7">
+        <v>353039</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>487</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>354749</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>505</v>
-      </c>
-      <c r="I33" s="7">
-        <v>353039</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -6306,7 +6309,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
